--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rectification à faible taux de contrainte résiduelle et polissage longitudinal.  </t>
-  </si>
-  <si>
-    <t>annexes.</t>
   </si>
   <si>
     <t>DMC0107 A</t>
@@ -323,9 +320,6 @@
     <t>Mesure et contrôle de la Contrainte Axiale</t>
   </si>
   <si>
-    <t>ASTM E-466-07et Instructions client.</t>
-  </si>
-  <si>
     <t>Contrôle de l'effort axial jusqu'à 2 000 000 cycles ou rupture.</t>
   </si>
   <si>
@@ -345,19 +339,44 @@
   </si>
   <si>
     <t>Loa</t>
+  </si>
+  <si>
+    <t>Néant</t>
+  </si>
+  <si>
+    <t>Essais de fatigue vibratoire sur xxxxx éprouvettes, matériau fourni par xxxxxxx.</t>
+  </si>
+  <si>
+    <t>Joachim GALIPAUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> et Instructions client.</t>
+  </si>
+  <si>
+    <t>Avant la spécif</t>
+  </si>
+  <si>
+    <t>Après spécif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASTM E466-15, </t>
+  </si>
+  <si>
+    <t>Voir cellule $K et $L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.00_)"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -464,8 +483,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -475,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +706,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="101">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -747,9 +779,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -806,9 +835,6 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -928,10 +954,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,9 +1379,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1355,12 +1397,14 @@
     <col min="8" max="8" width="21" style="3" customWidth="1"/>
     <col min="9" max="9" width="1.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="3"/>
+    <col min="11" max="11" width="13.5703125" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="3" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
-        <v>82</v>
+      <c r="A1" s="71" t="s">
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1374,7 +1418,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1418,20 +1462,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1444,20 +1488,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="95"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1470,28 +1514,33 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="B10" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="28" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="28"/>
+        <v>80</v>
+      </c>
+      <c r="C13" s="72"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="72"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15" s="72"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
@@ -1502,31 +1551,45 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E17" s="24"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E20" s="3" t="s">
+      <c r="E19" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K19" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="L19" s="99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E20" s="97" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E21" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -1534,18 +1597,18 @@
         <v>3</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>1</v>
       </c>
@@ -1557,17 +1620,17 @@
       </c>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E27" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B28" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>1</v>
       </c>
@@ -1584,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>35</v>
       </c>
@@ -1592,20 +1655,20 @@
         <v>3</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="75"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="76"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="72"/>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="72"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="74"/>
       <c r="F32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -1697,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
@@ -1714,14 +1777,16 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="29"/>
+      <c r="A51" s="96" t="s">
+        <v>92</v>
+      </c>
       <c r="H51" s="28"/>
       <c r="I51" s="29"/>
       <c r="J51" s="28"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I52" s="20" t="s">
         <v>59</v>
@@ -1761,12 +1826,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.196850393700787" right="0.196850393700787" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"-,Normal"&amp;9Page &amp;P/&amp;N&amp;10
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"-,Normal"&amp;9Page &amp;P/&amp;N&amp;10
 </oddHeader>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1777,607 +1844,607 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="32" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="33" customWidth="1"/>
-    <col min="5" max="87" width="7.5703125" style="31" customWidth="1"/>
-    <col min="88" max="16384" width="11.42578125" style="31"/>
+    <col min="1" max="1" width="3.5703125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" style="32" customWidth="1"/>
+    <col min="5" max="87" width="7.5703125" style="30" customWidth="1"/>
+    <col min="88" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="33" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:4" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="33"/>
     </row>
     <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="51"/>
-    </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="51"/>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="52"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="51"/>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="52"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="53"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="98"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="39" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="52"/>
+      <c r="D12" s="51"/>
     </row>
     <row r="13" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="39" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="52"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="52"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="65"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="89" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="63"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="66"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="64"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="94"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="94"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="41"/>
+      <c r="C19" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="95"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="61"/>
+      <c r="C20" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="64"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="39" t="s">
+      <c r="B21" s="42"/>
+      <c r="C21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="55"/>
-    </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="D21" s="54"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="39" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="54"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="40"/>
+      <c r="C23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="55"/>
-    </row>
-    <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="40" t="s">
+      <c r="D23" s="54"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="53"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="67"/>
-    </row>
-    <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64" t="s">
+      <c r="D25" s="55"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="66"/>
-    </row>
-    <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="56"/>
-    </row>
-    <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="56"/>
-    </row>
-    <row r="24" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="39" t="s">
+      <c r="D26" s="80"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="84"/>
+    </row>
+    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="54"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="76" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" s="65"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="61"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="64"/>
+    </row>
+    <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="54"/>
+    </row>
+    <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="54"/>
+    </row>
+    <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" s="54"/>
+    </row>
+    <row r="35" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="53"/>
+    </row>
+    <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="56"/>
+    </row>
+    <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="56"/>
+    </row>
+    <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="56"/>
+    </row>
+    <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="70" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="66"/>
+    </row>
+    <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="61"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="64"/>
+    </row>
+    <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="51"/>
+    </row>
+    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="51"/>
+    </row>
+    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="35"/>
+      <c r="C44" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="51"/>
+    </row>
+    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="35"/>
+      <c r="C45" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="51"/>
+    </row>
+    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" s="35"/>
+      <c r="C46" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="52"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="57"/>
+    </row>
+    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="60"/>
+    </row>
+    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="47"/>
+      <c r="D49" s="48"/>
+    </row>
+    <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="55"/>
-    </row>
-    <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="71" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="57"/>
-    </row>
-    <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="82"/>
-    </row>
-    <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="86"/>
-    </row>
-    <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="55"/>
-    </row>
-    <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="67"/>
-    </row>
-    <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="70" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="66"/>
-    </row>
-    <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="71" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D32" s="56"/>
-    </row>
-    <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="56"/>
-    </row>
-    <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="56"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="55"/>
-    </row>
-    <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="57"/>
-    </row>
-    <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="58"/>
-    </row>
-    <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="58"/>
-    </row>
-    <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="58"/>
-    </row>
-    <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" s="68"/>
-    </row>
-    <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="63"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="66"/>
-    </row>
-    <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="52"/>
-    </row>
-    <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="52"/>
-    </row>
-    <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="36"/>
-      <c r="C44" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="52"/>
-    </row>
-    <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="36"/>
-      <c r="C45" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="52"/>
-    </row>
-    <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="36"/>
-      <c r="C46" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="54"/>
-    </row>
-    <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47" s="59"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="45"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="62"/>
-    </row>
-    <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="48"/>
-      <c r="D49" s="49"/>
-    </row>
-    <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="60" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="61"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="61"/>
-      <c r="N50" s="61"/>
-      <c r="O50" s="61"/>
-      <c r="P50" s="61"/>
-      <c r="Q50" s="61"/>
-      <c r="R50" s="61"/>
-      <c r="S50" s="61"/>
-      <c r="T50" s="61"/>
-      <c r="U50" s="61"/>
-      <c r="V50" s="61"/>
-      <c r="W50" s="61"/>
-      <c r="X50" s="61"/>
-      <c r="Y50" s="61"/>
-      <c r="Z50" s="61"/>
-      <c r="AA50" s="61"/>
-      <c r="AB50" s="61"/>
-      <c r="AC50" s="61"/>
-      <c r="AD50" s="61"/>
-      <c r="AE50" s="61"/>
-      <c r="AF50" s="61"/>
-      <c r="AG50" s="61"/>
-      <c r="AH50" s="61"/>
-      <c r="AI50" s="61"/>
-      <c r="AJ50" s="61"/>
-      <c r="AK50" s="61"/>
-      <c r="AL50" s="61"/>
-      <c r="AM50" s="61"/>
-      <c r="AN50" s="61"/>
-      <c r="AO50" s="61"/>
-      <c r="AP50" s="61"/>
-      <c r="AQ50" s="61"/>
-      <c r="AR50" s="61"/>
-      <c r="AS50" s="61"/>
-      <c r="AT50" s="61"/>
-      <c r="AU50" s="61"/>
-      <c r="AV50" s="61"/>
-      <c r="AW50" s="61"/>
-      <c r="AX50" s="61"/>
-      <c r="AY50" s="61"/>
-      <c r="AZ50" s="61"/>
-      <c r="BA50" s="61"/>
-      <c r="BB50" s="61"/>
-      <c r="BC50" s="61"/>
-      <c r="BD50" s="61"/>
-      <c r="BE50" s="61"/>
-      <c r="BF50" s="61"/>
-      <c r="BG50" s="61"/>
-      <c r="BH50" s="61"/>
-      <c r="BI50" s="61"/>
-      <c r="BJ50" s="61"/>
-      <c r="BK50" s="61"/>
-      <c r="BL50" s="61"/>
-      <c r="BM50" s="61"/>
-      <c r="BN50" s="61"/>
-      <c r="BO50" s="61"/>
-      <c r="BP50" s="61"/>
-      <c r="BQ50" s="61"/>
-      <c r="BR50" s="61"/>
-      <c r="BS50" s="61"/>
-      <c r="BT50" s="61"/>
-      <c r="BU50" s="61"/>
-      <c r="BV50" s="61"/>
-      <c r="BW50" s="61"/>
-      <c r="BX50" s="61"/>
-      <c r="BY50" s="61"/>
-      <c r="BZ50" s="61"/>
-      <c r="CA50" s="61"/>
-      <c r="CB50" s="61"/>
-      <c r="CC50" s="61"/>
-      <c r="CD50" s="61"/>
-      <c r="CE50" s="61"/>
-      <c r="CF50" s="61"/>
-      <c r="CG50" s="61"/>
-      <c r="CH50" s="61"/>
-      <c r="CI50" s="61"/>
-      <c r="CJ50" s="61"/>
-      <c r="CK50" s="61"/>
-      <c r="CL50" s="61"/>
-      <c r="CM50" s="61"/>
-      <c r="CN50" s="61"/>
-      <c r="CO50" s="61"/>
-      <c r="CP50" s="61"/>
-      <c r="CQ50" s="61"/>
-      <c r="CR50" s="61"/>
-      <c r="CS50" s="61"/>
-      <c r="CT50" s="61"/>
-      <c r="CU50" s="61"/>
-      <c r="CV50" s="61"/>
-      <c r="CW50" s="61"/>
-      <c r="CX50" s="61"/>
-      <c r="CY50" s="61"/>
+      <c r="C50" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="59"/>
+      <c r="V50" s="59"/>
+      <c r="W50" s="59"/>
+      <c r="X50" s="59"/>
+      <c r="Y50" s="59"/>
+      <c r="Z50" s="59"/>
+      <c r="AA50" s="59"/>
+      <c r="AB50" s="59"/>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="59"/>
+      <c r="AE50" s="59"/>
+      <c r="AF50" s="59"/>
+      <c r="AG50" s="59"/>
+      <c r="AH50" s="59"/>
+      <c r="AI50" s="59"/>
+      <c r="AJ50" s="59"/>
+      <c r="AK50" s="59"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="59"/>
+      <c r="AN50" s="59"/>
+      <c r="AO50" s="59"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="59"/>
+      <c r="AR50" s="59"/>
+      <c r="AS50" s="59"/>
+      <c r="AT50" s="59"/>
+      <c r="AU50" s="59"/>
+      <c r="AV50" s="59"/>
+      <c r="AW50" s="59"/>
+      <c r="AX50" s="59"/>
+      <c r="AY50" s="59"/>
+      <c r="AZ50" s="59"/>
+      <c r="BA50" s="59"/>
+      <c r="BB50" s="59"/>
+      <c r="BC50" s="59"/>
+      <c r="BD50" s="59"/>
+      <c r="BE50" s="59"/>
+      <c r="BF50" s="59"/>
+      <c r="BG50" s="59"/>
+      <c r="BH50" s="59"/>
+      <c r="BI50" s="59"/>
+      <c r="BJ50" s="59"/>
+      <c r="BK50" s="59"/>
+      <c r="BL50" s="59"/>
+      <c r="BM50" s="59"/>
+      <c r="BN50" s="59"/>
+      <c r="BO50" s="59"/>
+      <c r="BP50" s="59"/>
+      <c r="BQ50" s="59"/>
+      <c r="BR50" s="59"/>
+      <c r="BS50" s="59"/>
+      <c r="BT50" s="59"/>
+      <c r="BU50" s="59"/>
+      <c r="BV50" s="59"/>
+      <c r="BW50" s="59"/>
+      <c r="BX50" s="59"/>
+      <c r="BY50" s="59"/>
+      <c r="BZ50" s="59"/>
+      <c r="CA50" s="59"/>
+      <c r="CB50" s="59"/>
+      <c r="CC50" s="59"/>
+      <c r="CD50" s="59"/>
+      <c r="CE50" s="59"/>
+      <c r="CF50" s="59"/>
+      <c r="CG50" s="59"/>
+      <c r="CH50" s="59"/>
+      <c r="CI50" s="59"/>
+      <c r="CJ50" s="59"/>
+      <c r="CK50" s="59"/>
+      <c r="CL50" s="59"/>
+      <c r="CM50" s="59"/>
+      <c r="CN50" s="59"/>
+      <c r="CO50" s="59"/>
+      <c r="CP50" s="59"/>
+      <c r="CQ50" s="59"/>
+      <c r="CR50" s="59"/>
+      <c r="CS50" s="59"/>
+      <c r="CT50" s="59"/>
+      <c r="CU50" s="59"/>
+      <c r="CV50" s="59"/>
+      <c r="CW50" s="59"/>
+      <c r="CX50" s="59"/>
+      <c r="CY50" s="59"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="48"/>
+      <c r="C51" s="47"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="50"/>
+      <c r="A52" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="49"/>
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="49"/>
+      <c r="D53" s="48"/>
     </row>
     <row r="54" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="50"/>
+      <c r="D54" s="49"/>
     </row>
     <row r="55" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="49"/>
+      <c r="D55" s="48"/>
     </row>
     <row r="56" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="50"/>
+      <c r="D56" s="49"/>
     </row>
     <row r="74" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2386,10 +2453,11 @@
   <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.78740157480314998" bottom="0.59055118110236204" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N
 </oddHeader>
-    <oddFooter xml:space="preserve">&amp;R                              </oddFooter>
+    <oddFooter xml:space="preserve">&amp;C&amp;G&amp;R                              </oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2398,7 +2466,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2406,13 +2474,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="F1" s="94" t="s">
+      <c r="A1" s="93" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="91"/>
       <c r="H1" s="22">
         <f>+'En-tête'!J5</f>
         <v>0</v>
@@ -2428,13 +2496,38 @@
   <pageMargins left="0.59055118110236204" right="0.59055118110236204" top="0.98425196850393704" bottom="0.98425196850393704" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader xml:space="preserve">&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Times New Roman,Normal"&amp;9Page &amp;P/&amp;N&amp;"MS Sans Serif,Normal"&amp;10
 </oddHeader>
+    <oddFooter>&amp;C&amp;G</oddFooter>
   </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2610,30 +2703,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2650,37 +2753,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -491,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,6 +510,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -706,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -850,9 +856,6 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -969,6 +972,10 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1381,9 +1388,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1403,7 +1408,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2"/>
@@ -1462,20 +1467,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1488,20 +1493,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1514,7 +1519,7 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="73" t="s">
         <v>90</v>
       </c>
       <c r="C10" s="8"/>
@@ -1531,16 +1536,16 @@
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="72"/>
+      <c r="C13" s="71"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="72"/>
+      <c r="C14" s="71"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="72"/>
+      <c r="C15" s="71"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
@@ -1569,18 +1574,18 @@
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="K19" s="99" t="s">
+      <c r="K19" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="99" t="s">
+      <c r="L19" s="98" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="96" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1659,16 +1664,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="72"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="72"/>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="74"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="73"/>
       <c r="F32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1777,7 +1782,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="96" t="s">
+      <c r="A51" s="95" t="s">
         <v>92</v>
       </c>
       <c r="H51" s="28"/>
@@ -1844,7 +1849,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1916,7 +1921,7 @@
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="98"/>
+      <c r="D10" s="97"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
@@ -1949,34 +1954,34 @@
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="84"/>
+      <c r="B14" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="87" t="s">
+      <c r="C14" s="86" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="51"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="89" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C15" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="63"/>
+      <c r="C15" s="89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="64"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="63"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -1986,7 +1991,7 @@
       <c r="C17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="94"/>
+      <c r="D17" s="93"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
@@ -1996,30 +2001,30 @@
       <c r="C18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="94"/>
+      <c r="D18" s="93"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+      <c r="A19" s="66" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="94"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="61"/>
-      <c r="C20" s="62" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="64"/>
+      <c r="D20" s="63"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="42"/>
@@ -2029,7 +2034,7 @@
       <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="40"/>
@@ -2037,7 +2042,7 @@
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="40"/>
@@ -2057,7 +2062,7 @@
       <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="40"/>
@@ -2067,32 +2072,32 @@
       <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79" t="s">
+      <c r="B26" s="77"/>
+      <c r="C26" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="80"/>
+      <c r="D26" s="79"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="83" t="s">
+      <c r="C27" s="82" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="84"/>
+      <c r="D27" s="83"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="74" t="s">
         <v>85</v>
       </c>
       <c r="C28" s="38" t="s">
@@ -2101,10 +2106,10 @@
       <c r="D28" s="53"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="74" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="38" t="s">
@@ -2113,27 +2118,27 @@
       <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="75" t="s">
         <v>87</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="65"/>
+      <c r="D30" s="64"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="68" t="s">
+      <c r="A31" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="64"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="63"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="42" t="s">
@@ -2145,7 +2150,7 @@
       <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -2157,7 +2162,7 @@
       <c r="D33" s="54"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -2181,7 +2186,7 @@
       <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="40" t="s">
@@ -2193,7 +2198,7 @@
       <c r="D36" s="55"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="40" t="s">
@@ -2205,7 +2210,7 @@
       <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -2217,7 +2222,7 @@
       <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="40" t="s">
@@ -2229,7 +2234,7 @@
       <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70" t="s">
+      <c r="A40" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -2238,15 +2243,15 @@
       <c r="C40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="66"/>
+      <c r="D40" s="65"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="61"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="64"/>
+      <c r="D41" s="63"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
@@ -2302,125 +2307,125 @@
       <c r="C47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="57"/>
+      <c r="D47" s="99"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44"/>
       <c r="B48" s="45"/>
       <c r="C48" s="46"/>
-      <c r="D48" s="60"/>
+      <c r="D48" s="59"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="47"/>
       <c r="D49" s="48"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
+      <c r="A50" s="57" t="s">
         <v>71</v>
       </c>
       <c r="C50" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="59"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="59"/>
-      <c r="V50" s="59"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="59"/>
-      <c r="Y50" s="59"/>
-      <c r="Z50" s="59"/>
-      <c r="AA50" s="59"/>
-      <c r="AB50" s="59"/>
-      <c r="AC50" s="59"/>
-      <c r="AD50" s="59"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="59"/>
-      <c r="AG50" s="59"/>
-      <c r="AH50" s="59"/>
-      <c r="AI50" s="59"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="59"/>
-      <c r="AL50" s="59"/>
-      <c r="AM50" s="59"/>
-      <c r="AN50" s="59"/>
-      <c r="AO50" s="59"/>
-      <c r="AP50" s="59"/>
-      <c r="AQ50" s="59"/>
-      <c r="AR50" s="59"/>
-      <c r="AS50" s="59"/>
-      <c r="AT50" s="59"/>
-      <c r="AU50" s="59"/>
-      <c r="AV50" s="59"/>
-      <c r="AW50" s="59"/>
-      <c r="AX50" s="59"/>
-      <c r="AY50" s="59"/>
-      <c r="AZ50" s="59"/>
-      <c r="BA50" s="59"/>
-      <c r="BB50" s="59"/>
-      <c r="BC50" s="59"/>
-      <c r="BD50" s="59"/>
-      <c r="BE50" s="59"/>
-      <c r="BF50" s="59"/>
-      <c r="BG50" s="59"/>
-      <c r="BH50" s="59"/>
-      <c r="BI50" s="59"/>
-      <c r="BJ50" s="59"/>
-      <c r="BK50" s="59"/>
-      <c r="BL50" s="59"/>
-      <c r="BM50" s="59"/>
-      <c r="BN50" s="59"/>
-      <c r="BO50" s="59"/>
-      <c r="BP50" s="59"/>
-      <c r="BQ50" s="59"/>
-      <c r="BR50" s="59"/>
-      <c r="BS50" s="59"/>
-      <c r="BT50" s="59"/>
-      <c r="BU50" s="59"/>
-      <c r="BV50" s="59"/>
-      <c r="BW50" s="59"/>
-      <c r="BX50" s="59"/>
-      <c r="BY50" s="59"/>
-      <c r="BZ50" s="59"/>
-      <c r="CA50" s="59"/>
-      <c r="CB50" s="59"/>
-      <c r="CC50" s="59"/>
-      <c r="CD50" s="59"/>
-      <c r="CE50" s="59"/>
-      <c r="CF50" s="59"/>
-      <c r="CG50" s="59"/>
-      <c r="CH50" s="59"/>
-      <c r="CI50" s="59"/>
-      <c r="CJ50" s="59"/>
-      <c r="CK50" s="59"/>
-      <c r="CL50" s="59"/>
-      <c r="CM50" s="59"/>
-      <c r="CN50" s="59"/>
-      <c r="CO50" s="59"/>
-      <c r="CP50" s="59"/>
-      <c r="CQ50" s="59"/>
-      <c r="CR50" s="59"/>
-      <c r="CS50" s="59"/>
-      <c r="CT50" s="59"/>
-      <c r="CU50" s="59"/>
-      <c r="CV50" s="59"/>
-      <c r="CW50" s="59"/>
-      <c r="CX50" s="59"/>
-      <c r="CY50" s="59"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="58"/>
+      <c r="J50" s="58"/>
+      <c r="K50" s="58"/>
+      <c r="L50" s="58"/>
+      <c r="M50" s="58"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="58"/>
+      <c r="P50" s="58"/>
+      <c r="Q50" s="58"/>
+      <c r="R50" s="58"/>
+      <c r="S50" s="58"/>
+      <c r="T50" s="58"/>
+      <c r="U50" s="58"/>
+      <c r="V50" s="58"/>
+      <c r="W50" s="58"/>
+      <c r="X50" s="58"/>
+      <c r="Y50" s="58"/>
+      <c r="Z50" s="58"/>
+      <c r="AA50" s="58"/>
+      <c r="AB50" s="58"/>
+      <c r="AC50" s="58"/>
+      <c r="AD50" s="58"/>
+      <c r="AE50" s="58"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="58"/>
+      <c r="AI50" s="58"/>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="58"/>
+      <c r="AL50" s="58"/>
+      <c r="AM50" s="58"/>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="58"/>
+      <c r="AP50" s="58"/>
+      <c r="AQ50" s="58"/>
+      <c r="AR50" s="58"/>
+      <c r="AS50" s="58"/>
+      <c r="AT50" s="58"/>
+      <c r="AU50" s="58"/>
+      <c r="AV50" s="58"/>
+      <c r="AW50" s="58"/>
+      <c r="AX50" s="58"/>
+      <c r="AY50" s="58"/>
+      <c r="AZ50" s="58"/>
+      <c r="BA50" s="58"/>
+      <c r="BB50" s="58"/>
+      <c r="BC50" s="58"/>
+      <c r="BD50" s="58"/>
+      <c r="BE50" s="58"/>
+      <c r="BF50" s="58"/>
+      <c r="BG50" s="58"/>
+      <c r="BH50" s="58"/>
+      <c r="BI50" s="58"/>
+      <c r="BJ50" s="58"/>
+      <c r="BK50" s="58"/>
+      <c r="BL50" s="58"/>
+      <c r="BM50" s="58"/>
+      <c r="BN50" s="58"/>
+      <c r="BO50" s="58"/>
+      <c r="BP50" s="58"/>
+      <c r="BQ50" s="58"/>
+      <c r="BR50" s="58"/>
+      <c r="BS50" s="58"/>
+      <c r="BT50" s="58"/>
+      <c r="BU50" s="58"/>
+      <c r="BV50" s="58"/>
+      <c r="BW50" s="58"/>
+      <c r="BX50" s="58"/>
+      <c r="BY50" s="58"/>
+      <c r="BZ50" s="58"/>
+      <c r="CA50" s="58"/>
+      <c r="CB50" s="58"/>
+      <c r="CC50" s="58"/>
+      <c r="CD50" s="58"/>
+      <c r="CE50" s="58"/>
+      <c r="CF50" s="58"/>
+      <c r="CG50" s="58"/>
+      <c r="CH50" s="58"/>
+      <c r="CI50" s="58"/>
+      <c r="CJ50" s="58"/>
+      <c r="CK50" s="58"/>
+      <c r="CL50" s="58"/>
+      <c r="CM50" s="58"/>
+      <c r="CN50" s="58"/>
+      <c r="CO50" s="58"/>
+      <c r="CP50" s="58"/>
+      <c r="CQ50" s="58"/>
+      <c r="CR50" s="58"/>
+      <c r="CS50" s="58"/>
+      <c r="CT50" s="58"/>
+      <c r="CU50" s="58"/>
+      <c r="CV50" s="58"/>
+      <c r="CW50" s="58"/>
+      <c r="CX50" s="58"/>
+      <c r="CY50" s="58"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="47"/>
@@ -2466,7 +2471,7 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2474,13 +2479,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92"/>
+      <c r="D1" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="91"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="22">
         <f>+'En-tête'!J5</f>
         <v>0</v>
@@ -2505,20 +2511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2527,7 +2519,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2703,32 +2695,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -2736,7 +2717,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2753,4 +2734,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -326,15 +326,6 @@
     <t>Max.</t>
   </si>
   <si>
-    <t>moy</t>
-  </si>
-  <si>
-    <t>alt</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>Requête client</t>
   </si>
   <si>
@@ -363,18 +354,28 @@
   </si>
   <si>
     <t>Voir cellule $K et $L</t>
+  </si>
+  <si>
+    <t>Moy</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>Min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.00_)"/>
     <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="#0.0#"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -517,7 +518,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -708,11 +709,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -871,9 +902,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -931,9 +959,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -976,8 +1001,17 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1388,7 +1422,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1408,7 +1442,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>81</v>
       </c>
       <c r="B1" s="2"/>
@@ -1467,20 +1501,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1493,20 +1527,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1519,8 +1553,8 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>90</v>
+      <c r="B10" s="72" t="s">
+        <v>87</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -1529,23 +1563,23 @@
         <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="70"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="71"/>
+      <c r="C14" s="70"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="71"/>
+      <c r="C15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
@@ -1561,10 +1595,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K18" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1574,18 +1608,18 @@
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="98" t="s">
+      <c r="E19" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="K19" s="96" t="s">
         <v>93</v>
       </c>
+      <c r="L19" s="96" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="96" t="s">
+      <c r="E20" s="94" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1664,16 +1698,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="72"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="73"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1782,8 +1816,8 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="95" t="s">
-        <v>92</v>
+      <c r="A51" s="93" t="s">
+        <v>89</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="29"/>
@@ -1847,9 +1881,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A4:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="D14" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1921,7 +1955,7 @@
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="97"/>
+      <c r="D10" s="95"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
@@ -1954,34 +1988,34 @@
       <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="51"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="101"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="62"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="102"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="66" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="60"/>
       <c r="C16" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="63"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -1991,7 +2025,7 @@
       <c r="C17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="93"/>
+      <c r="D17" s="91"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
@@ -2001,30 +2035,30 @@
       <c r="C18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="93"/>
+      <c r="D18" s="91"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
+      <c r="A19" s="65" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="94"/>
+      <c r="D19" s="92"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="66" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="60"/>
       <c r="C20" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="63"/>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="67" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="42"/>
@@ -2034,7 +2068,7 @@
       <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="67" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="40"/>
@@ -2042,7 +2076,7 @@
       <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="67" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="40"/>
@@ -2062,7 +2096,7 @@
       <c r="D24" s="53"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="67" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="40"/>
@@ -2072,45 +2106,45 @@
       <c r="D25" s="55"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78" t="s">
+      <c r="B26" s="76"/>
+      <c r="C26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="79"/>
+      <c r="D26" s="78"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="83"/>
+      <c r="D27" s="99"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="74" t="s">
-        <v>85</v>
+      <c r="B28" s="73" t="s">
+        <v>95</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="54"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="74" t="s">
-        <v>86</v>
+      <c r="B29" s="73" t="s">
+        <v>96</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>28</v>
@@ -2118,27 +2152,27 @@
       <c r="D29" s="54"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="75" t="s">
-        <v>87</v>
+      <c r="B30" s="74" t="s">
+        <v>97</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="64"/>
+      <c r="D30" s="63"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="66" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="60"/>
       <c r="C31" s="61"/>
-      <c r="D31" s="63"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="67" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="42" t="s">
@@ -2150,7 +2184,7 @@
       <c r="D32" s="54"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="68" t="s">
+      <c r="A33" s="67" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -2162,7 +2196,7 @@
       <c r="D33" s="54"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="68" t="s">
+      <c r="A34" s="67" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -2186,7 +2220,7 @@
       <c r="D35" s="53"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="68" t="s">
+      <c r="A36" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="40" t="s">
@@ -2198,7 +2232,7 @@
       <c r="D36" s="55"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="40" t="s">
@@ -2210,7 +2244,7 @@
       <c r="D37" s="56"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -2222,7 +2256,7 @@
       <c r="D38" s="56"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="67" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="40" t="s">
@@ -2234,7 +2268,7 @@
       <c r="D39" s="56"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -2243,15 +2277,15 @@
       <c r="C40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="65"/>
+      <c r="D40" s="64"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="66" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="60"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="63"/>
+      <c r="D41" s="62"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
@@ -2307,7 +2341,7 @@
       <c r="C47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="99"/>
+      <c r="D47" s="97"/>
     </row>
     <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="44"/>
@@ -2479,14 +2513,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="92"/>
-      <c r="D1" s="100" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="91" t="s">
+      <c r="A1" s="90"/>
+      <c r="D1" s="98" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="90"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="22">
         <f>+'En-tête'!J5</f>
         <v>0</v>

--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -314,9 +314,6 @@
     <t>Eprouvettes usinées par Metcut Research Inc, sous référence : xxxxxxxxxx</t>
   </si>
   <si>
-    <t>COMPTE-RENDU D'ESSAIS Load Contrôle</t>
-  </si>
-  <si>
     <t>Mesure et contrôle de la Contrainte Axiale</t>
   </si>
   <si>
@@ -363,6 +360,9 @@
   </si>
   <si>
     <t>Min</t>
+  </si>
+  <si>
+    <t>COMPTE-RENDU D'ESSAIS DE FATIGUE</t>
   </si>
 </sst>
 </file>
@@ -375,7 +375,7 @@
     <numFmt numFmtId="166" formatCode="[$-40C]d\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
     <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="#0.0#"/>
+    <numFmt numFmtId="169" formatCode="#0.0#"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1004,14 +1004,14 @@
     <xf numFmtId="167" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,7 +1422,9 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1443,7 +1445,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1457,7 +1459,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1501,20 +1503,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1527,20 +1529,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1554,7 +1556,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="8"/>
     </row>
@@ -1563,7 +1565,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1595,10 +1597,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1609,13 +1611,13 @@
         <v>3</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K19" s="96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L19" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1694,7 +1696,7 @@
         <v>3</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -1817,7 +1819,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="93" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H51" s="28"/>
       <c r="I51" s="29"/>
@@ -1881,7 +1883,7 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A4:CY74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D14" sqref="D14:D15"/>
     </sheetView>
@@ -1990,22 +1992,22 @@
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="82"/>
       <c r="B14" s="83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="101"/>
+      <c r="D14" s="100"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="85"/>
       <c r="B15" s="86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="102"/>
+      <c r="D15" s="101"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="66" t="s">
@@ -2120,7 +2122,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27" s="81" t="s">
         <v>28</v>
@@ -2132,7 +2134,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>28</v>
@@ -2144,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>28</v>
@@ -2156,7 +2158,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>28</v>
@@ -2515,7 +2517,7 @@
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="90"/>
       <c r="D1" s="98" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F1" s="89" t="s">
         <v>0</v>
@@ -2545,15 +2547,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006A18800F7AB66843AE086E8500CCEA21" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d60d5c9f17a480d7e4b53ebba2c4603">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67604082-326d-4240-aaee-100283b20839" xmlns:ns3="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b97804bffc58ba73e5228c2548755f2" ns2:_="" ns3:_="">
     <xsd:import namespace="67604082-326d-4240-aaee-100283b20839"/>
@@ -2729,29 +2736,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{386C40D6-9904-47D7-9FC5-798E8189EC7C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2770,27 +2789,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3C53B3C-BBC9-48C3-9DA4-3687FEE00EE8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="9855" windowHeight="4650" tabRatio="576" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="En-tête" sheetId="2" r:id="rId1"/>
@@ -852,15 +852,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -893,9 +884,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1000,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,7 +1422,7 @@
   <sheetPr codeName="Feuil1"/>
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1444,7 +1444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="2"/>
@@ -1503,20 +1503,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="102"/>
-      <c r="F6" s="102"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1529,20 +1529,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="68" t="s">
         <v>86</v>
       </c>
       <c r="C10" s="8"/>
@@ -1572,16 +1572,16 @@
       <c r="B13" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="70"/>
+      <c r="C13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="66"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="70"/>
+      <c r="C15" s="66"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="13" t="s">
@@ -1610,18 +1610,18 @@
       <c r="D19" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="96" t="s">
+      <c r="K19" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="96" t="s">
+      <c r="L19" s="92" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="90" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1700,16 +1700,16 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="72"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="3" t="s">
         <v>1</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="93" t="s">
+      <c r="A51" s="89" t="s">
         <v>88</v>
       </c>
       <c r="H51" s="28"/>
@@ -1883,9 +1883,9 @@
   <sheetPr codeName="Feuil2"/>
   <dimension ref="A4:CY74"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D14" sqref="D14:D15"/>
+      <selection pane="topRight" activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1909,7 @@
       <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="50"/>
+      <c r="D5" s="47"/>
     </row>
     <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
@@ -1919,7 +1919,7 @@
       <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="50"/>
+      <c r="D6" s="47"/>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
@@ -1929,7 +1929,7 @@
       <c r="C7" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="51"/>
+      <c r="D7" s="48"/>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
@@ -1939,7 +1939,7 @@
       <c r="C8" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="51"/>
+      <c r="D8" s="48"/>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
@@ -1949,7 +1949,7 @@
       <c r="C9" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="48"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="37"/>
-      <c r="D10" s="95"/>
+      <c r="D10" s="91"/>
     </row>
     <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
@@ -1967,7 +1967,7 @@
       <c r="C11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="48"/>
     </row>
     <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
@@ -1977,7 +1977,7 @@
       <c r="C12" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="48"/>
     </row>
     <row r="13" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
@@ -1987,37 +1987,37 @@
       <c r="C13" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="48"/>
     </row>
     <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="100"/>
+      <c r="C14" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="96"/>
     </row>
     <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="101"/>
+      <c r="C15" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="97"/>
     </row>
     <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="62"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="58"/>
     </row>
     <row r="17" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
@@ -2027,7 +2027,7 @@
       <c r="C17" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="91"/>
+      <c r="D17" s="87"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34" t="s">
@@ -2037,55 +2037,55 @@
       <c r="C18" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="87"/>
     </row>
     <row r="19" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="61" t="s">
         <v>76</v>
       </c>
       <c r="B19" s="41"/>
       <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="88"/>
     </row>
     <row r="20" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66" t="s">
+      <c r="A20" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="58"/>
     </row>
     <row r="21" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="54"/>
+      <c r="D21" s="51"/>
     </row>
     <row r="22" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="40"/>
       <c r="C22" s="38"/>
-      <c r="D22" s="54"/>
+      <c r="D22" s="51"/>
     </row>
     <row r="23" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="63" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="40"/>
       <c r="C23" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="54"/>
+      <c r="D23" s="51"/>
     </row>
     <row r="24" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34" t="s">
@@ -2095,86 +2095,86 @@
       <c r="C24" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="53"/>
+      <c r="D24" s="50"/>
     </row>
     <row r="25" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="63" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="40"/>
       <c r="C25" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="52"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="75" t="s">
+      <c r="A26" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="77" t="s">
+      <c r="B26" s="72"/>
+      <c r="C26" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="78"/>
+      <c r="D26" s="74"/>
     </row>
     <row r="27" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="80" t="s">
+      <c r="B27" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="81" t="s">
+      <c r="C27" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="95"/>
     </row>
     <row r="28" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="73" t="s">
+      <c r="B28" s="69" t="s">
         <v>94</v>
       </c>
       <c r="C28" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="54"/>
+      <c r="D28" s="51"/>
     </row>
     <row r="29" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="73" t="s">
+      <c r="B29" s="69" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="54"/>
+      <c r="D29" s="51"/>
     </row>
     <row r="30" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="68" t="s">
+      <c r="A30" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="70" t="s">
         <v>96</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="59"/>
     </row>
     <row r="31" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
     </row>
     <row r="32" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="63" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="42" t="s">
@@ -2183,10 +2183,10 @@
       <c r="C32" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="54"/>
+      <c r="D32" s="51"/>
     </row>
     <row r="33" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -2195,10 +2195,10 @@
       <c r="C33" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="51"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -2207,7 +2207,7 @@
       <c r="C34" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D34" s="54"/>
+      <c r="D34" s="51"/>
     </row>
     <row r="35" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
@@ -2219,10 +2219,10 @@
       <c r="C35" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="50"/>
     </row>
     <row r="36" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B36" s="40" t="s">
@@ -2231,10 +2231,10 @@
       <c r="C36" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="40" t="s">
@@ -2243,10 +2243,10 @@
       <c r="C37" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -2255,10 +2255,10 @@
       <c r="C38" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="56"/>
+      <c r="D38" s="53"/>
     </row>
     <row r="39" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="40" t="s">
@@ -2267,10 +2267,10 @@
       <c r="C39" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="53"/>
     </row>
     <row r="40" spans="1:4" ht="14.1" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68" t="s">
+      <c r="A40" s="64" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="41" t="s">
@@ -2279,15 +2279,15 @@
       <c r="C40" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D40" s="64"/>
+      <c r="D40" s="60"/>
     </row>
     <row r="41" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66" t="s">
+      <c r="A41" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="60"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="62"/>
+      <c r="D41" s="58"/>
     </row>
     <row r="42" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="34" t="s">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B42" s="35"/>
       <c r="C42" s="37"/>
-      <c r="D42" s="51"/>
+      <c r="D42" s="48"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="34" t="s">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B43" s="35"/>
       <c r="C43" s="37"/>
-      <c r="D43" s="51"/>
+      <c r="D43" s="48"/>
     </row>
     <row r="44" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
@@ -2313,7 +2313,7 @@
       <c r="C44" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="51"/>
+      <c r="D44" s="48"/>
     </row>
     <row r="45" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="43" t="s">
@@ -2323,7 +2323,7 @@
       <c r="C45" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D45" s="51"/>
+      <c r="D45" s="48"/>
     </row>
     <row r="46" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="34" t="s">
@@ -2333,7 +2333,7 @@
       <c r="C46" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="52"/>
+      <c r="D46" s="49"/>
     </row>
     <row r="47" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43" t="s">
@@ -2343,128 +2343,128 @@
       <c r="C47" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="97"/>
-    </row>
-    <row r="48" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="44"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="59"/>
+      <c r="D47" s="93"/>
+    </row>
+    <row r="48" spans="1:4" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="99"/>
+      <c r="B48" s="100"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="102"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
     </row>
     <row r="50" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="58"/>
-      <c r="K50" s="58"/>
-      <c r="L50" s="58"/>
-      <c r="M50" s="58"/>
-      <c r="N50" s="58"/>
-      <c r="O50" s="58"/>
-      <c r="P50" s="58"/>
-      <c r="Q50" s="58"/>
-      <c r="R50" s="58"/>
-      <c r="S50" s="58"/>
-      <c r="T50" s="58"/>
-      <c r="U50" s="58"/>
-      <c r="V50" s="58"/>
-      <c r="W50" s="58"/>
-      <c r="X50" s="58"/>
-      <c r="Y50" s="58"/>
-      <c r="Z50" s="58"/>
-      <c r="AA50" s="58"/>
-      <c r="AB50" s="58"/>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="58"/>
-      <c r="AF50" s="58"/>
-      <c r="AG50" s="58"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="58"/>
-      <c r="AK50" s="58"/>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="58"/>
-      <c r="AO50" s="58"/>
-      <c r="AP50" s="58"/>
-      <c r="AQ50" s="58"/>
-      <c r="AR50" s="58"/>
-      <c r="AS50" s="58"/>
-      <c r="AT50" s="58"/>
-      <c r="AU50" s="58"/>
-      <c r="AV50" s="58"/>
-      <c r="AW50" s="58"/>
-      <c r="AX50" s="58"/>
-      <c r="AY50" s="58"/>
-      <c r="AZ50" s="58"/>
-      <c r="BA50" s="58"/>
-      <c r="BB50" s="58"/>
-      <c r="BC50" s="58"/>
-      <c r="BD50" s="58"/>
-      <c r="BE50" s="58"/>
-      <c r="BF50" s="58"/>
-      <c r="BG50" s="58"/>
-      <c r="BH50" s="58"/>
-      <c r="BI50" s="58"/>
-      <c r="BJ50" s="58"/>
-      <c r="BK50" s="58"/>
-      <c r="BL50" s="58"/>
-      <c r="BM50" s="58"/>
-      <c r="BN50" s="58"/>
-      <c r="BO50" s="58"/>
-      <c r="BP50" s="58"/>
-      <c r="BQ50" s="58"/>
-      <c r="BR50" s="58"/>
-      <c r="BS50" s="58"/>
-      <c r="BT50" s="58"/>
-      <c r="BU50" s="58"/>
-      <c r="BV50" s="58"/>
-      <c r="BW50" s="58"/>
-      <c r="BX50" s="58"/>
-      <c r="BY50" s="58"/>
-      <c r="BZ50" s="58"/>
-      <c r="CA50" s="58"/>
-      <c r="CB50" s="58"/>
-      <c r="CC50" s="58"/>
-      <c r="CD50" s="58"/>
-      <c r="CE50" s="58"/>
-      <c r="CF50" s="58"/>
-      <c r="CG50" s="58"/>
-      <c r="CH50" s="58"/>
-      <c r="CI50" s="58"/>
-      <c r="CJ50" s="58"/>
-      <c r="CK50" s="58"/>
-      <c r="CL50" s="58"/>
-      <c r="CM50" s="58"/>
-      <c r="CN50" s="58"/>
-      <c r="CO50" s="58"/>
-      <c r="CP50" s="58"/>
-      <c r="CQ50" s="58"/>
-      <c r="CR50" s="58"/>
-      <c r="CS50" s="58"/>
-      <c r="CT50" s="58"/>
-      <c r="CU50" s="58"/>
-      <c r="CV50" s="58"/>
-      <c r="CW50" s="58"/>
-      <c r="CX50" s="58"/>
-      <c r="CY50" s="58"/>
+      <c r="C50" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="55"/>
+      <c r="Q50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+      <c r="Y50" s="55"/>
+      <c r="Z50" s="55"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
+      <c r="AC50" s="55"/>
+      <c r="AD50" s="55"/>
+      <c r="AE50" s="55"/>
+      <c r="AF50" s="55"/>
+      <c r="AG50" s="55"/>
+      <c r="AH50" s="55"/>
+      <c r="AI50" s="55"/>
+      <c r="AJ50" s="55"/>
+      <c r="AK50" s="55"/>
+      <c r="AL50" s="55"/>
+      <c r="AM50" s="55"/>
+      <c r="AN50" s="55"/>
+      <c r="AO50" s="55"/>
+      <c r="AP50" s="55"/>
+      <c r="AQ50" s="55"/>
+      <c r="AR50" s="55"/>
+      <c r="AS50" s="55"/>
+      <c r="AT50" s="55"/>
+      <c r="AU50" s="55"/>
+      <c r="AV50" s="55"/>
+      <c r="AW50" s="55"/>
+      <c r="AX50" s="55"/>
+      <c r="AY50" s="55"/>
+      <c r="AZ50" s="55"/>
+      <c r="BA50" s="55"/>
+      <c r="BB50" s="55"/>
+      <c r="BC50" s="55"/>
+      <c r="BD50" s="55"/>
+      <c r="BE50" s="55"/>
+      <c r="BF50" s="55"/>
+      <c r="BG50" s="55"/>
+      <c r="BH50" s="55"/>
+      <c r="BI50" s="55"/>
+      <c r="BJ50" s="55"/>
+      <c r="BK50" s="55"/>
+      <c r="BL50" s="55"/>
+      <c r="BM50" s="55"/>
+      <c r="BN50" s="55"/>
+      <c r="BO50" s="55"/>
+      <c r="BP50" s="55"/>
+      <c r="BQ50" s="55"/>
+      <c r="BR50" s="55"/>
+      <c r="BS50" s="55"/>
+      <c r="BT50" s="55"/>
+      <c r="BU50" s="55"/>
+      <c r="BV50" s="55"/>
+      <c r="BW50" s="55"/>
+      <c r="BX50" s="55"/>
+      <c r="BY50" s="55"/>
+      <c r="BZ50" s="55"/>
+      <c r="CA50" s="55"/>
+      <c r="CB50" s="55"/>
+      <c r="CC50" s="55"/>
+      <c r="CD50" s="55"/>
+      <c r="CE50" s="55"/>
+      <c r="CF50" s="55"/>
+      <c r="CG50" s="55"/>
+      <c r="CH50" s="55"/>
+      <c r="CI50" s="55"/>
+      <c r="CJ50" s="55"/>
+      <c r="CK50" s="55"/>
+      <c r="CL50" s="55"/>
+      <c r="CM50" s="55"/>
+      <c r="CN50" s="55"/>
+      <c r="CO50" s="55"/>
+      <c r="CP50" s="55"/>
+      <c r="CQ50" s="55"/>
+      <c r="CR50" s="55"/>
+      <c r="CS50" s="55"/>
+      <c r="CT50" s="55"/>
+      <c r="CU50" s="55"/>
+      <c r="CV50" s="55"/>
+      <c r="CW50" s="55"/>
+      <c r="CX50" s="55"/>
+      <c r="CY50" s="55"/>
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C51" s="47"/>
+      <c r="C51" s="44"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
@@ -2473,19 +2473,19 @@
       <c r="C52" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="46"/>
     </row>
     <row r="53" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D53" s="48"/>
+      <c r="D53" s="45"/>
     </row>
     <row r="54" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="49"/>
+      <c r="D54" s="46"/>
     </row>
     <row r="55" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D55" s="48"/>
+      <c r="D55" s="45"/>
     </row>
     <row r="56" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D56" s="49"/>
+      <c r="D56" s="46"/>
     </row>
     <row r="74" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2515,14 +2515,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="90"/>
-      <c r="D1" s="98" t="s">
+      <c r="A1" s="86"/>
+      <c r="D1" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="88"/>
+      <c r="G1" s="84"/>
       <c r="H1" s="22">
         <f>+'En-tête'!J5</f>
         <v>0</v>
@@ -2551,13 +2551,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
-    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
-    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2737,12 +2736,13 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Check xmlns="67604082-326d-4240-aaee-100283b20839">Rapport Validé</Check>
+    <vctj xmlns="67604082-326d-4240-aaee-100283b20839">8043</vctj>
+    <pv7j xmlns="67604082-326d-4240-aaee-100283b20839">13232</pv7j>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2754,18 +2754,9 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2790,9 +2781,18 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F1329F-71F7-4F0E-A822-5837ADF5B51C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{07ED7936-D779-47E7-BF6C-7C086F04E976}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="67604082-326d-4240-aaee-100283b20839"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="8fb9fcf7-a6bd-4cda-a801-5717a79e1e97"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/lib/PHPExcel/templates/Report Loa.xlsx
+++ b/lib/PHPExcel/templates/Report Loa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
   <si>
     <t>No. DE TRAVAIL :</t>
   </si>
@@ -377,7 +377,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="#0.0#"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -491,6 +491,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="MS Sans Serif"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -740,10 +751,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="107">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -998,24 +1010,37 @@
     <xf numFmtId="169" fontId="15" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1503,20 +1528,20 @@
       <c r="B6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
       <c r="H7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1529,20 +1554,20 @@
       <c r="B8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
       <c r="J8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
       <c r="H9" s="11" t="s">
         <v>9</v>
       </c>
@@ -1881,11 +1906,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A4:CY74"/>
+  <dimension ref="A1:CY74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A48" sqref="A48:XFD48"/>
+      <selection pane="topRight" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1898,10 +1923,17 @@
     <col min="88" max="16384" width="11.42578125" style="30"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="102" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="103"/>
+      <c r="D1" s="104"/>
+      <c r="P1" s="105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="32" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33"/>
     </row>
-    <row r="5" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
         <v>78</v>
       </c>
@@ -1911,7 +1943,7 @@
       </c>
       <c r="D5" s="47"/>
     </row>
-    <row r="6" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
         <v>79</v>
       </c>
@@ -1921,7 +1953,7 @@
       </c>
       <c r="D6" s="47"/>
     </row>
-    <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
         <v>4</v>
       </c>
@@ -1931,7 +1963,7 @@
       </c>
       <c r="D7" s="48"/>
     </row>
-    <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>61</v>
       </c>
@@ -1941,7 +1973,7 @@
       </c>
       <c r="D8" s="48"/>
     </row>
-    <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +1983,7 @@
       </c>
       <c r="D9" s="48"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1991,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="91"/>
     </row>
-    <row r="11" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43" t="s">
         <v>10</v>
       </c>
@@ -1969,7 +2001,7 @@
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>46</v>
       </c>
@@ -1979,7 +2011,7 @@
       </c>
       <c r="D12" s="48"/>
     </row>
-    <row r="13" spans="1:4" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +2021,7 @@
       </c>
       <c r="D13" s="48"/>
     </row>
-    <row r="14" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="79" t="s">
         <v>84</v>
@@ -1999,7 +2031,7 @@
       </c>
       <c r="D14" s="96"/>
     </row>
-    <row r="15" spans="1:4" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="81"/>
       <c r="B15" s="82" t="s">
         <v>84</v>
@@ -2009,7 +2041,7 @@
       </c>
       <c r="D15" s="97"/>
     </row>
-    <row r="16" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>16</v>
       </c>
@@ -2346,10 +2378,10 @@
       <c r="D47" s="93"/>
     </row>
     <row r="48" spans="1:4" s="19" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="99"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="102"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
     </row>
     <row r="49" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="44"/>
@@ -2465,6 +2497,7 @@
     </row>
     <row r="51" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="44"/>
+      <c r="D51" s="55"/>
     </row>
     <row r="52" spans="1:103" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="30" t="s">
